--- a/biology/Botanique/Thomas_Kirk/Thomas_Kirk.xlsx
+++ b/biology/Botanique/Thomas_Kirk/Thomas_Kirk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Kirk est un botaniste britannique, né le 18 janvier 1828 à Coventry dans le Warwickshire et mort le 8 mars 1898 à Wellington en Nouvelle-Zélande.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’un pépiniériste du Warwickshire. Il est membre de la Botanical Society of London et de la Société linnéenne de Londres (1871). De 1849 à 1862, il dirige des marchands de bois à Coventry. Il part en Nouvelle-Zélande en 1862. En 1881, il enseigne la biologie et la géologie au Lincoln College de Canterbury. De 1885 à 1888, il est conservateur-chef des forêts appartenant à l’État.
 Kirk est notamment l’auteur de Forest Flora New Zealand (1889), Students’ Flora New Zealand (1899). Il contribue aux revues Phytologist (de 1847 à 1860) et Transaction of New Zealand Institute (de 1868 à 1897). Harry Howard Barton Allan (1882-1957) lui dédie en 1961 le genre Kirkianella de la famille des Asteraceae.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ray Desmond (1994). Dictionary of British and Irish Botanists and Horticulturists includins Plant Collectors, Flower Painters and Garden Designers. Taylor &amp; Francis and The Natural History Museum (Londres).</t>
         </is>
